--- a/Chapter_04/Chapter_4_Table_S4.16.xlsx
+++ b/Chapter_04/Chapter_4_Table_S4.16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crtuser\OneDrive - National University of Ireland, Galway\Desktop\Dropbox\@John O'Grady\@Thesis\Supplementary\Chapter_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8924A730-37C2-44ED-87A2-09BCE05EF572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7E2E850-2BFC-44FD-A23E-5AFA8D322BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49170" yWindow="-1830" windowWidth="29040" windowHeight="15720" xr2:uid="{76C474E7-0855-465C-86E5-E2B4C92A55AC}"/>
+    <workbookView xWindow="20370" yWindow="-1815" windowWidth="29040" windowHeight="15720" xr2:uid="{2818D553-54EE-412F-8F61-40D7CB44EC09}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter_4_Table_S4.16" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="11">
   <si>
     <r>
       <t xml:space="preserve">Supplementary Table S4.16: </t>
@@ -49,14 +49,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Optimum decision thresholds for maximising sensitivity and balancing sensitivity in for the three gene sets identified using the greedy-forward search strategy</t>
+      <t>Optimum decision thresholds for maximising sensitivity and balancing sensitivity for the three gene sets identified using the greedy-forward search strategy</t>
     </r>
   </si>
   <si>
-    <t>Gene Set</t>
-  </si>
-  <si>
-    <t>Decision threshold</t>
+    <t>Threshold</t>
   </si>
   <si>
     <t>Sensitivity</t>
@@ -65,20 +62,33 @@
     <t>Specificity</t>
   </si>
   <si>
-    <t>Combined</t>
+    <t>Set</t>
   </si>
   <si>
-    <t>Pass 1</t>
+    <t>Combined
+Performance</t>
   </si>
   <si>
-    <t>Pass 2</t>
+    <t>Negative Inf</t>
+  </si>
+  <si>
+    <t>13-gene set</t>
+  </si>
+  <si>
+    <t>Inf</t>
+  </si>
+  <si>
+    <t>17-gene set</t>
+  </si>
+  <si>
+    <t>30-gene set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,19 +111,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -128,34 +138,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -171,16 +172,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D381AE61-6362-4BDB-9046-48201F3A6B33}" name="Table16" displayName="Table16" ref="A2:E5" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A2:E5" xr:uid="{EC23D31B-6E38-4D77-AE3C-06D2DC24DBF1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{023C3E4A-EE59-42F9-A9D7-47BE770EC490}" name="Table124" displayName="Table124" ref="A2:E209" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:E209" xr:uid="{623966F2-4700-4B80-AAED-94C550B34354}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F4BBAA56-524B-48E1-85F6-A307D19C9B31}" name="Gene Set"/>
-    <tableColumn id="2" xr3:uid="{1433597C-917E-44A3-BD29-B0B12B6C4969}" name="Decision threshold"/>
-    <tableColumn id="3" xr3:uid="{1506738B-F3E6-4E82-82C9-DCC7D1FFE5A1}" name="Sensitivity"/>
-    <tableColumn id="4" xr3:uid="{1D7CDF1A-13E9-496C-9963-46577FD2FC4E}" name="Specificity"/>
-    <tableColumn id="5" xr3:uid="{F92AD33C-1A0F-415D-B577-4B8F1255D1A9}" name="Combined"/>
+    <tableColumn id="1" xr3:uid="{9E3C5473-53B9-469E-B769-F02ACC2CB5DD}" name="Threshold"/>
+    <tableColumn id="2" xr3:uid="{4224E69E-FD31-495A-8439-5E2F3402ADFC}" name="Sensitivity"/>
+    <tableColumn id="3" xr3:uid="{6FF358D3-5966-4AB3-A846-31E3F94B8A3E}" name="Specificity"/>
+    <tableColumn id="4" xr3:uid="{2F32FC21-41B0-4410-B740-654185EC2BC7}" name="Set"/>
+    <tableColumn id="5" xr3:uid="{4BEF9836-AFC0-4772-9C01-359142DF1913}" name="Combined_x000a_Performance"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -500,12 +501,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA38EDD3-CC76-4631-8BF4-76C77BE42E90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D610907C-4314-4F76-82F7-B37602688788}">
   <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,11 +514,12 @@
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="5" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +534,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -545,59 +547,3527 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.34596290000000002</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0.91176469999999998</v>
-      </c>
-      <c r="D3">
-        <v>0.85294119999999995</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>1.7647060000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-0.72863602488560297</v>
       </c>
       <c r="B4">
-        <v>-0.2379047</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0.94117649999999997</v>
-      </c>
-      <c r="D4">
-        <v>0.76470590000000005</v>
+        <v>2.9411764705882401E-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>1.7058819999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
+        <v>1.02941176470588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-0.213885943096216</v>
       </c>
       <c r="B5">
-        <v>-0.37408849999999999</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0.94117649999999997</v>
-      </c>
-      <c r="D5">
-        <v>0.76470590000000005</v>
+        <v>5.8823529411764698E-2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>1.7058819999999999</v>
+        <v>1.0588235294117601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-0.14333099052151799</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>8.8235294117647106E-2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>1.0882352941176501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-9.9989943892282197E-3</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0.11764705882352899</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>1.1176470588235301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.15302794648979701</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.14705882352941199</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>1.1470588235294099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.21430906706328401</v>
+      </c>
+      <c r="B9">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C9">
+        <v>0.14705882352941199</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>1.1176470588235301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.38026826967033001</v>
+      </c>
+      <c r="B10">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C10">
+        <v>0.17647058823529399</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>1.1470588235294099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.53042692641239897</v>
+      </c>
+      <c r="B11">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C11">
+        <v>0.20588235294117599</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>1.1764705882352899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.55008641431267902</v>
+      </c>
+      <c r="B12">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="C12">
+        <v>0.20588235294117599</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>1.1470588235294099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.56906829406919701</v>
+      </c>
+      <c r="B13">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="C13">
+        <v>0.23529411764705899</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>1.1764705882352899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.59395385674767798</v>
+      </c>
+      <c r="B14">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="C14">
+        <v>0.26470588235294101</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>1.20588235294118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.64409620055605799</v>
+      </c>
+      <c r="B15">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="C15">
+        <v>0.29411764705882398</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>1.23529411764706</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.69121195084270404</v>
+      </c>
+      <c r="B16">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="C16">
+        <v>0.32352941176470601</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>1.26470588235294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.70691760639990497</v>
+      </c>
+      <c r="B17">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="C17">
+        <v>0.35294117647058798</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>1.29411764705882</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.73039149861617403</v>
+      </c>
+      <c r="B18">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="C18">
+        <v>0.38235294117647101</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>1.3235294117647101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.75405530588923098</v>
+      </c>
+      <c r="B19">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="C19">
+        <v>0.41176470588235298</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>1.3529411764705901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.76226604711842405</v>
+      </c>
+      <c r="B20">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="C20">
+        <v>0.441176470588235</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>1.3823529411764699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.78228690626309205</v>
+      </c>
+      <c r="B21">
+        <v>0.91176470588235303</v>
+      </c>
+      <c r="C21">
+        <v>0.441176470588235</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>1.3529411764705901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.83378553686406698</v>
+      </c>
+      <c r="B22">
+        <v>0.91176470588235303</v>
+      </c>
+      <c r="C22">
+        <v>0.47058823529411797</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>1.3823529411764699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.87488963288844701</v>
+      </c>
+      <c r="B23">
+        <v>0.91176470588235303</v>
+      </c>
+      <c r="C23">
+        <v>0.5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>1.4117647058823499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.88372822559189401</v>
+      </c>
+      <c r="B24">
+        <v>0.91176470588235303</v>
+      </c>
+      <c r="C24">
+        <v>0.52941176470588203</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>1.4411764705882399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.88705312326305896</v>
+      </c>
+      <c r="B25">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="C25">
+        <v>0.52941176470588203</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>1.4117647058823499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>0.90813159952716704</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.55882352941176505</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1.4411764705882399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.9461499962123</v>
+      </c>
+      <c r="B27">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="C27">
+        <v>0.55882352941176505</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>1.4117647058823499</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.97730740584169495</v>
+      </c>
+      <c r="B28">
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="C28">
+        <v>0.55882352941176505</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>1.3823529411764699</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.993785312488769</v>
+      </c>
+      <c r="B29">
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="C29">
+        <v>0.58823529411764697</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>1.4117647058823499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.99927370096420198</v>
+      </c>
+      <c r="B30">
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="C30">
+        <v>0.61764705882352899</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>1.4411764705882399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1.0123359782535699</v>
+      </c>
+      <c r="B31">
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="C31">
+        <v>0.64705882352941202</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>1.47058823529412</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1.02845095528314</v>
+      </c>
+      <c r="B32">
+        <v>0.79411764705882304</v>
+      </c>
+      <c r="C32">
+        <v>0.64705882352941202</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>1.4411764705882399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1.0518374691752901</v>
+      </c>
+      <c r="B33">
+        <v>0.79411764705882304</v>
+      </c>
+      <c r="C33">
+        <v>0.67647058823529405</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>1.47058823529412</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1.0748527327247901</v>
+      </c>
+      <c r="B34">
+        <v>0.79411764705882304</v>
+      </c>
+      <c r="C34">
+        <v>0.70588235294117696</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1.08704650511974</v>
+      </c>
+      <c r="B35">
+        <v>0.79411764705882304</v>
+      </c>
+      <c r="C35">
+        <v>0.73529411764705899</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>1.52941176470588</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1.0976256379498099</v>
+      </c>
+      <c r="B36">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="C36">
+        <v>0.73529411764705899</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1.1096741933226599</v>
+      </c>
+      <c r="B37">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="C37">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>1.52941176470588</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1.12020682184542</v>
+      </c>
+      <c r="B38">
+        <v>0.73529411764705899</v>
+      </c>
+      <c r="C38">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1.13523657589896</v>
+      </c>
+      <c r="B39">
+        <v>0.73529411764705899</v>
+      </c>
+      <c r="C39">
+        <v>0.79411764705882304</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>1.52941176470588</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1.1581830769192001</v>
+      </c>
+      <c r="B40">
+        <v>0.73529411764705899</v>
+      </c>
+      <c r="C40">
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>1.5588235294117601</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1.19020774528683</v>
+      </c>
+      <c r="B41">
+        <v>0.73529411764705899</v>
+      </c>
+      <c r="C41">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>1.5882352941176501</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1.2334337463907701</v>
+      </c>
+      <c r="B42">
+        <v>0.73529411764705899</v>
+      </c>
+      <c r="C42">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>1.6176470588235301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1.2620961111278499</v>
+      </c>
+      <c r="B43">
+        <v>0.70588235294117696</v>
+      </c>
+      <c r="C43">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>1.5882352941176501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1.29133463393309</v>
+      </c>
+      <c r="B44">
+        <v>0.67647058823529405</v>
+      </c>
+      <c r="C44">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>1.5588235294117601</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1.3179657128236699</v>
+      </c>
+      <c r="B45">
+        <v>0.67647058823529405</v>
+      </c>
+      <c r="C45">
+        <v>0.91176470588235303</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>1.5882352941176501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1.34057648783322</v>
+      </c>
+      <c r="B46">
+        <v>0.67647058823529405</v>
+      </c>
+      <c r="C46">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <v>1.6176470588235301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1.41078732427742</v>
+      </c>
+      <c r="B47">
+        <v>0.64705882352941202</v>
+      </c>
+      <c r="C47">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>1.5882352941176501</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1.4888931303528301</v>
+      </c>
+      <c r="B48">
+        <v>0.61764705882352899</v>
+      </c>
+      <c r="C48">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>1.5588235294117601</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1.5240560941546899</v>
+      </c>
+      <c r="B49">
+        <v>0.58823529411764697</v>
+      </c>
+      <c r="C49">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>1.52941176470588</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1.55197271653015</v>
+      </c>
+      <c r="B50">
+        <v>0.58823529411764697</v>
+      </c>
+      <c r="C50">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <v>1.5588235294117601</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1.58175013506791</v>
+      </c>
+      <c r="B51">
+        <v>0.55882352941176505</v>
+      </c>
+      <c r="C51">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>1.52941176470588</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1.6621159454918399</v>
+      </c>
+      <c r="B52">
+        <v>0.52941176470588203</v>
+      </c>
+      <c r="C52">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1.77367139769113</v>
+      </c>
+      <c r="B53">
+        <v>0.52941176470588203</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53">
+        <v>1.52941176470588</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1.8706755721719299</v>
+      </c>
+      <c r="B54">
+        <v>0.5</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1.92785800727553</v>
+      </c>
+      <c r="B55">
+        <v>0.47058823529411797</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55">
+        <v>1.47058823529412</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1.9621674266293301</v>
+      </c>
+      <c r="B56">
+        <v>0.441176470588235</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56">
+        <v>1.4411764705882399</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1.9990387755412899</v>
+      </c>
+      <c r="B57">
+        <v>0.41176470588235298</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57">
+        <v>1.4117647058823499</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2.0079836678593601</v>
+      </c>
+      <c r="B58">
+        <v>0.38235294117647101</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58">
+        <v>1.3823529411764699</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2.0494828543535402</v>
+      </c>
+      <c r="B59">
+        <v>0.35294117647058798</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59">
+        <v>1.3529411764705901</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2.10988253910278</v>
+      </c>
+      <c r="B60">
+        <v>0.32352941176470601</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60">
+        <v>1.3235294117647101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2.1528514787406898</v>
+      </c>
+      <c r="B61">
+        <v>0.29411764705882398</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61">
+        <v>1.29411764705882</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2.1996660208073</v>
+      </c>
+      <c r="B62">
+        <v>0.26470588235294101</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62">
+        <v>1.26470588235294</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2.3498406389061799</v>
+      </c>
+      <c r="B63">
+        <v>0.23529411764705899</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63">
+        <v>1.23529411764706</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2.5929381394184401</v>
+      </c>
+      <c r="B64">
+        <v>0.20588235294117599</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64">
+        <v>1.20588235294118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2.7528685052551398</v>
+      </c>
+      <c r="B65">
+        <v>0.17647058823529399</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65">
+        <v>1.1764705882352899</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2.8471919303335298</v>
+      </c>
+      <c r="B66">
+        <v>0.14705882352941199</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66">
+        <v>1.1470588235294099</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2.99896111460688</v>
+      </c>
+      <c r="B67">
+        <v>0.11764705882352899</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67">
+        <v>1.1176470588235301</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>3.1546190451300098</v>
+      </c>
+      <c r="B68">
+        <v>8.8235294117647106E-2</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68">
+        <v>1.0882352941176501</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>3.56433508200214</v>
+      </c>
+      <c r="B69">
+        <v>5.8823529411764698E-2</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69">
+        <v>1.0588235294117601</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>3.9187610071289498</v>
+      </c>
+      <c r="B70">
+        <v>2.9411764705882401E-2</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70">
+        <v>1.02941176470588</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>-2.0725159769696599</v>
+      </c>
+      <c r="B73">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73">
+        <v>0.97058823529411797</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>-1.9142077161686299</v>
+      </c>
+      <c r="B74">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C74">
+        <v>2.9411764705882401E-2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>-1.7588924784590501</v>
+      </c>
+      <c r="B75">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C75">
+        <v>5.8823529411764698E-2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75">
+        <v>1.02941176470588</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>-1.62831989412739</v>
+      </c>
+      <c r="B76">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C76">
+        <v>8.8235294117647106E-2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76">
+        <v>1.0588235294117601</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>-1.5332431063606899</v>
+      </c>
+      <c r="B77">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C77">
+        <v>0.11764705882352899</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77">
+        <v>1.0882352941176501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>-1.41650209648014</v>
+      </c>
+      <c r="B78">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C78">
+        <v>0.14705882352941199</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78">
+        <v>1.1176470588235301</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>-1.31109378318281</v>
+      </c>
+      <c r="B79">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C79">
+        <v>0.17647058823529399</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79">
+        <v>1.1470588235294099</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>-1.2451223318552</v>
+      </c>
+      <c r="B80">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C80">
+        <v>0.20588235294117599</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80">
+        <v>1.1764705882352899</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>-1.2005580538993099</v>
+      </c>
+      <c r="B81">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C81">
+        <v>0.23529411764705899</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81">
+        <v>1.20588235294118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>-1.17235943566302</v>
+      </c>
+      <c r="B82">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C82">
+        <v>0.26470588235294101</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82">
+        <v>1.23529411764706</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>-1.1503772449012299</v>
+      </c>
+      <c r="B83">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C83">
+        <v>0.29411764705882398</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83">
+        <v>1.26470588235294</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>-1.1475547164990301</v>
+      </c>
+      <c r="B84">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C84">
+        <v>0.32352941176470601</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84">
+        <v>1.29411764705882</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>-1.12419195931782</v>
+      </c>
+      <c r="B85">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C85">
+        <v>0.35294117647058798</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85">
+        <v>1.3235294117647101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>-1.09547745481187</v>
+      </c>
+      <c r="B86">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C86">
+        <v>0.38235294117647101</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86">
+        <v>1.3529411764705901</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>-1.08486935848781</v>
+      </c>
+      <c r="B87">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C87">
+        <v>0.41176470588235298</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87">
+        <v>1.3823529411764699</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>-1.0723639956876101</v>
+      </c>
+      <c r="B88">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="C88">
+        <v>0.41176470588235298</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88">
+        <v>1.3529411764705901</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>-1.05454577225364</v>
+      </c>
+      <c r="B89">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="C89">
+        <v>0.441176470588235</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89">
+        <v>1.3823529411764699</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>-1.03578391679563</v>
+      </c>
+      <c r="B90">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="C90">
+        <v>0.47058823529411797</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90">
+        <v>1.4117647058823499</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>-1.0209268947552499</v>
+      </c>
+      <c r="B91">
+        <v>0.91176470588235303</v>
+      </c>
+      <c r="C91">
+        <v>0.47058823529411797</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91">
+        <v>1.3823529411764699</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>-1.0139685680103301</v>
+      </c>
+      <c r="B92">
+        <v>0.91176470588235303</v>
+      </c>
+      <c r="C92">
+        <v>0.5</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92">
+        <v>1.4117647058823499</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>-1.0114141828766099</v>
+      </c>
+      <c r="B93">
+        <v>0.91176470588235303</v>
+      </c>
+      <c r="C93">
+        <v>0.52941176470588203</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93">
+        <v>1.4411764705882399</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>-0.99893670824666703</v>
+      </c>
+      <c r="B94">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="C94">
+        <v>0.52941176470588203</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94">
+        <v>1.4117647058823499</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>-0.95313785778193305</v>
+      </c>
+      <c r="B95">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="C95">
+        <v>0.55882352941176505</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95">
+        <v>1.4411764705882399</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>-0.90014648592808999</v>
+      </c>
+      <c r="B96">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="C96">
+        <v>0.55882352941176505</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96">
+        <v>1.4117647058823499</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>-0.87054451140224998</v>
+      </c>
+      <c r="B97">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="C97">
+        <v>0.58823529411764697</v>
+      </c>
+      <c r="D97" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97">
+        <v>1.4411764705882399</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>-0.85619394197143095</v>
+      </c>
+      <c r="B98">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="C98">
+        <v>0.61764705882352899</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98">
+        <v>1.47058823529412</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>-0.83859869156696898</v>
+      </c>
+      <c r="B99">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="C99">
+        <v>0.64705882352941202</v>
+      </c>
+      <c r="D99" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>-0.81758006183498499</v>
+      </c>
+      <c r="B100">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="C100">
+        <v>0.67647058823529405</v>
+      </c>
+      <c r="D100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100">
+        <v>1.52941176470588</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>-0.80807870993379605</v>
+      </c>
+      <c r="B101">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="C101">
+        <v>0.70588235294117696</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101">
+        <v>1.5588235294117601</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>-0.80562411164569303</v>
+      </c>
+      <c r="B102">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="C102">
+        <v>0.73529411764705899</v>
+      </c>
+      <c r="D102" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102">
+        <v>1.5882352941176501</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>-0.79748750806236801</v>
+      </c>
+      <c r="B103">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="C103">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="D103" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103">
+        <v>1.6176470588235301</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>-0.786593222911804</v>
+      </c>
+      <c r="B104">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="C104">
+        <v>0.79411764705882304</v>
+      </c>
+      <c r="D104" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104">
+        <v>1.6470588235294099</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>-0.772277503081363</v>
+      </c>
+      <c r="B105">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="C105">
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="D105" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105">
+        <v>1.6764705882352899</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>-0.75685985692725999</v>
+      </c>
+      <c r="B106" s="4">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="C106" s="4">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="4">
+        <v>1.70588235294118</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>-0.66804992008908903</v>
+      </c>
+      <c r="B107">
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="C107">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107">
+        <v>1.6764705882352899</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>-0.58072592567856895</v>
+      </c>
+      <c r="B108">
+        <v>0.79411764705882304</v>
+      </c>
+      <c r="C108">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="D108" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108">
+        <v>1.6470588235294099</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>-0.57622915839732902</v>
+      </c>
+      <c r="B109">
+        <v>0.79411764705882304</v>
+      </c>
+      <c r="C109">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="D109" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109">
+        <v>1.6764705882352899</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>-0.57213366312879299</v>
+      </c>
+      <c r="B110">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="C110">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="D110" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110">
+        <v>1.6470588235294099</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>-0.56047980284279797</v>
+      </c>
+      <c r="B111">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="C111">
+        <v>0.91176470588235303</v>
+      </c>
+      <c r="D111" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111">
+        <v>1.6764705882352899</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>-0.53677931442331095</v>
+      </c>
+      <c r="B112">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="C112">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="D112" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112">
+        <v>1.70588235294118</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>-0.436875503057711</v>
+      </c>
+      <c r="B113">
+        <v>0.73529411764705899</v>
+      </c>
+      <c r="C113">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="D113" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113">
+        <v>1.6764705882352899</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>-0.34258633860042398</v>
+      </c>
+      <c r="B114">
+        <v>0.70588235294117696</v>
+      </c>
+      <c r="C114">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114">
+        <v>1.6470588235294099</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>-0.31843429049425698</v>
+      </c>
+      <c r="B115">
+        <v>0.70588235294117696</v>
+      </c>
+      <c r="C115">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="D115" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115">
+        <v>1.6764705882352899</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>-0.291977452513903</v>
+      </c>
+      <c r="B116">
+        <v>0.67647058823529405</v>
+      </c>
+      <c r="C116">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="D116" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116">
+        <v>1.6470588235294099</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>-0.25625678436889299</v>
+      </c>
+      <c r="B117">
+        <v>0.64705882352941202</v>
+      </c>
+      <c r="C117">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="D117" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117">
+        <v>1.6176470588235301</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>-0.221121311580498</v>
+      </c>
+      <c r="B118">
+        <v>0.61764705882352899</v>
+      </c>
+      <c r="C118">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="D118" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118">
+        <v>1.5882352941176501</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>-0.20697211689975301</v>
+      </c>
+      <c r="B119">
+        <v>0.58823529411764697</v>
+      </c>
+      <c r="C119">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119">
+        <v>1.5588235294117601</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>-0.190145606491781</v>
+      </c>
+      <c r="B120">
+        <v>0.55882352941176505</v>
+      </c>
+      <c r="C120">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120">
+        <v>1.52941176470588</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>-0.16806130448899001</v>
+      </c>
+      <c r="B121">
+        <v>0.52941176470588203</v>
+      </c>
+      <c r="C121">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="D121" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>-0.117949139997959</v>
+      </c>
+      <c r="B122">
+        <v>0.5</v>
+      </c>
+      <c r="C122">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="D122" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122">
+        <v>1.47058823529412</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>-6.2641718050487794E-2</v>
+      </c>
+      <c r="B123">
+        <v>0.47058823529411797</v>
+      </c>
+      <c r="C123">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="D123" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123">
+        <v>1.4411764705882399</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>-2.1925251164571599E-2</v>
+      </c>
+      <c r="B124">
+        <v>0.441176470588235</v>
+      </c>
+      <c r="C124">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="D124" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124">
+        <v>1.4117647058823499</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>9.7708035823314797E-3</v>
+      </c>
+      <c r="B125">
+        <v>0.41176470588235298</v>
+      </c>
+      <c r="C125">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="D125" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125">
+        <v>1.3823529411764699</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>3.02600458655101E-2</v>
+      </c>
+      <c r="B126">
+        <v>0.41176470588235298</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126">
+        <v>1.4117647058823499</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>4.5969068267652298E-2</v>
+      </c>
+      <c r="B127">
+        <v>0.38235294117647101</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127">
+        <v>1.3823529411764699</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>5.2885958406604497E-2</v>
+      </c>
+      <c r="B128">
+        <v>0.35294117647058798</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128">
+        <v>1.3529411764705901</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>8.2965760420537493E-2</v>
+      </c>
+      <c r="B129">
+        <v>0.32352941176470601</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129">
+        <v>1.3235294117647101</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>0.108464155811986</v>
+      </c>
+      <c r="B130">
+        <v>0.29411764705882398</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130">
+        <v>1.29411764705882</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>0.11936825656307</v>
+      </c>
+      <c r="B131">
+        <v>0.26470588235294101</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131">
+        <v>1.26470588235294</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>0.13906663074926401</v>
+      </c>
+      <c r="B132">
+        <v>0.23529411764705899</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132">
+        <v>1.23529411764706</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>0.183906992488682</v>
+      </c>
+      <c r="B133">
+        <v>0.20588235294117599</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133">
+        <v>1.20588235294118</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>0.228980789310512</v>
+      </c>
+      <c r="B134">
+        <v>0.17647058823529399</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134">
+        <v>1.1764705882352899</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>0.26227444695013902</v>
+      </c>
+      <c r="B135">
+        <v>0.14705882352941199</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135">
+        <v>1.1470588235294099</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>0.32673962546952201</v>
+      </c>
+      <c r="B136">
+        <v>0.11764705882352899</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136">
+        <v>1.1176470588235301</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>0.46353785374001799</v>
+      </c>
+      <c r="B137">
+        <v>8.8235294117647106E-2</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137">
+        <v>1.0882352941176501</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>0.56824726148978899</v>
+      </c>
+      <c r="B138">
+        <v>5.8823529411764698E-2</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138">
+        <v>1.0588235294117601</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1.16887901158005</v>
+      </c>
+      <c r="B139">
+        <v>2.9411764705882401E-2</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139">
+        <v>1.02941176470588</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>-2.11410011361547</v>
+      </c>
+      <c r="B142">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142">
+        <v>0.97058823529411797</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>-1.7865541801081599</v>
+      </c>
+      <c r="B143">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C143">
+        <v>2.9411764705882401E-2</v>
+      </c>
+      <c r="D143" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>-1.57741092802689</v>
+      </c>
+      <c r="B144">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C144">
+        <v>5.8823529411764698E-2</v>
+      </c>
+      <c r="D144" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144">
+        <v>1.02941176470588</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>-1.48163913418764</v>
+      </c>
+      <c r="B145">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C145">
+        <v>8.8235294117647106E-2</v>
+      </c>
+      <c r="D145" t="s">
+        <v>10</v>
+      </c>
+      <c r="E145">
+        <v>1.0588235294117601</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>-1.441102376935</v>
+      </c>
+      <c r="B146">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C146">
+        <v>0.11764705882352899</v>
+      </c>
+      <c r="D146" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146">
+        <v>1.0882352941176501</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>-1.3769723365509301</v>
+      </c>
+      <c r="B147">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C147">
+        <v>0.14705882352941199</v>
+      </c>
+      <c r="D147" t="s">
+        <v>10</v>
+      </c>
+      <c r="E147">
+        <v>1.1176470588235301</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>-1.24479428725222</v>
+      </c>
+      <c r="B148">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C148">
+        <v>0.17647058823529399</v>
+      </c>
+      <c r="D148" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148">
+        <v>1.1470588235294099</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>-1.1589429502441</v>
+      </c>
+      <c r="B149">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C149">
+        <v>0.20588235294117599</v>
+      </c>
+      <c r="D149" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149">
+        <v>1.1764705882352899</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>-1.1382938356533401</v>
+      </c>
+      <c r="B150">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C150">
+        <v>0.23529411764705899</v>
+      </c>
+      <c r="D150" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150">
+        <v>1.20588235294118</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>-1.12445615615572</v>
+      </c>
+      <c r="B151">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C151">
+        <v>0.26470588235294101</v>
+      </c>
+      <c r="D151" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151">
+        <v>1.23529411764706</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>-1.1098944948714</v>
+      </c>
+      <c r="B152">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C152">
+        <v>0.29411764705882398</v>
+      </c>
+      <c r="D152" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152">
+        <v>1.26470588235294</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>-1.10157809403468</v>
+      </c>
+      <c r="B153">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C153">
+        <v>0.32352941176470601</v>
+      </c>
+      <c r="D153" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153">
+        <v>1.29411764705882</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>-1.0641561364234</v>
+      </c>
+      <c r="B154">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C154">
+        <v>0.35294117647058798</v>
+      </c>
+      <c r="D154" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154">
+        <v>1.3235294117647101</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>-1.0179386446880601</v>
+      </c>
+      <c r="B155">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C155">
+        <v>0.38235294117647101</v>
+      </c>
+      <c r="D155" t="s">
+        <v>10</v>
+      </c>
+      <c r="E155">
+        <v>1.3529411764705901</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>-1.00636759135037</v>
+      </c>
+      <c r="B156">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C156">
+        <v>0.41176470588235298</v>
+      </c>
+      <c r="D156" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156">
+        <v>1.3823529411764699</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>-1.00248628477671</v>
+      </c>
+      <c r="B157">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C157">
+        <v>0.441176470588235</v>
+      </c>
+      <c r="D157" t="s">
+        <v>10</v>
+      </c>
+      <c r="E157">
+        <v>1.4117647058823499</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>-0.984129899305211</v>
+      </c>
+      <c r="B158">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C158">
+        <v>0.47058823529411797</v>
+      </c>
+      <c r="D158" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158">
+        <v>1.4411764705882399</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>-0.95803235564518596</v>
+      </c>
+      <c r="B159">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="C159">
+        <v>0.5</v>
+      </c>
+      <c r="D159" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159">
+        <v>1.47058823529412</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>-0.94390440230101902</v>
+      </c>
+      <c r="B160">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="C160">
+        <v>0.5</v>
+      </c>
+      <c r="D160" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160">
+        <v>1.4411764705882399</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>-0.92975788625756695</v>
+      </c>
+      <c r="B161">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="C161">
+        <v>0.52941176470588203</v>
+      </c>
+      <c r="D161" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161">
+        <v>1.47058823529412</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>-0.90655626913777698</v>
+      </c>
+      <c r="B162">
+        <v>0.91176470588235303</v>
+      </c>
+      <c r="C162">
+        <v>0.52941176470588203</v>
+      </c>
+      <c r="D162" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162">
+        <v>1.4411764705882399</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>-0.88470992018828498</v>
+      </c>
+      <c r="B163">
+        <v>0.91176470588235303</v>
+      </c>
+      <c r="C163">
+        <v>0.55882352941176505</v>
+      </c>
+      <c r="D163" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163">
+        <v>1.47058823529412</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>-0.85471958094683098</v>
+      </c>
+      <c r="B164">
+        <v>0.91176470588235303</v>
+      </c>
+      <c r="C164">
+        <v>0.58823529411764697</v>
+      </c>
+      <c r="D164" t="s">
+        <v>10</v>
+      </c>
+      <c r="E164">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>-0.80285378954319797</v>
+      </c>
+      <c r="B165">
+        <v>0.91176470588235303</v>
+      </c>
+      <c r="C165">
+        <v>0.61764705882352899</v>
+      </c>
+      <c r="D165" t="s">
+        <v>10</v>
+      </c>
+      <c r="E165">
+        <v>1.52941176470588</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>-0.76905384666452703</v>
+      </c>
+      <c r="B166">
+        <v>0.91176470588235303</v>
+      </c>
+      <c r="C166">
+        <v>0.64705882352941202</v>
+      </c>
+      <c r="D166" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166">
+        <v>1.5588235294117601</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>-0.76598751995286496</v>
+      </c>
+      <c r="B167">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="C167">
+        <v>0.64705882352941202</v>
+      </c>
+      <c r="D167" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167">
+        <v>1.52941176470588</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>-0.75160927399994004</v>
+      </c>
+      <c r="B168">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="C168">
+        <v>0.67647058823529405</v>
+      </c>
+      <c r="D168" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168">
+        <v>1.5588235294117601</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>-0.73343682723294801</v>
+      </c>
+      <c r="B169">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="C169">
+        <v>0.70588235294117696</v>
+      </c>
+      <c r="D169" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169">
+        <v>1.5882352941176501</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>-0.72364824257972005</v>
+      </c>
+      <c r="B170">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="C170">
+        <v>0.73529411764705899</v>
+      </c>
+      <c r="D170" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170">
+        <v>1.6176470588235301</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>-0.71614901652545004</v>
+      </c>
+      <c r="B171">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="C171">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="D171" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171">
+        <v>1.6470588235294099</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>-0.71286621496828795</v>
+      </c>
+      <c r="B172">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="C172">
+        <v>0.79411764705882304</v>
+      </c>
+      <c r="D172" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172">
+        <v>1.6764705882352899</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>-0.70550806861492699</v>
+      </c>
+      <c r="B173">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="C173">
+        <v>0.79411764705882304</v>
+      </c>
+      <c r="D173" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173">
+        <v>1.6470588235294099</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>-0.60639645755089799</v>
+      </c>
+      <c r="B174">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="C174">
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="D174" t="s">
+        <v>10</v>
+      </c>
+      <c r="E174">
+        <v>1.6764705882352899</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <v>-0.507949652343481</v>
+      </c>
+      <c r="B175" s="4">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="C175" s="4">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" s="4">
+        <v>1.70588235294118</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>-0.50117513126324897</v>
+      </c>
+      <c r="B176">
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="C176">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="D176" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176">
+        <v>1.6764705882352899</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>-0.49444976096735399</v>
+      </c>
+      <c r="B177">
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="C177">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="D177" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177">
+        <v>1.70588235294118</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>-0.44755603536458399</v>
+      </c>
+      <c r="B178">
+        <v>0.79411764705882304</v>
+      </c>
+      <c r="C178">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="D178" t="s">
+        <v>10</v>
+      </c>
+      <c r="E178">
+        <v>1.6764705882352899</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>-0.388509827351459</v>
+      </c>
+      <c r="B179">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="C179">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="D179" t="s">
+        <v>10</v>
+      </c>
+      <c r="E179">
+        <v>1.6470588235294099</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>-0.36833317229872697</v>
+      </c>
+      <c r="B180">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="C180">
+        <v>0.91176470588235303</v>
+      </c>
+      <c r="D180" t="s">
+        <v>10</v>
+      </c>
+      <c r="E180">
+        <v>1.6764705882352899</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>-0.34284460003359002</v>
+      </c>
+      <c r="B181">
+        <v>0.73529411764705899</v>
+      </c>
+      <c r="C181">
+        <v>0.91176470588235303</v>
+      </c>
+      <c r="D181" t="s">
+        <v>10</v>
+      </c>
+      <c r="E181">
+        <v>1.6470588235294099</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>-0.31010348427598899</v>
+      </c>
+      <c r="B182">
+        <v>0.70588235294117696</v>
+      </c>
+      <c r="C182">
+        <v>0.91176470588235303</v>
+      </c>
+      <c r="D182" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182">
+        <v>1.6176470588235301</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>-0.25520232620834199</v>
+      </c>
+      <c r="B183">
+        <v>0.70588235294117696</v>
+      </c>
+      <c r="C183">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="D183" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183">
+        <v>1.6470588235294099</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>-0.18679641296018701</v>
+      </c>
+      <c r="B184">
+        <v>0.67647058823529405</v>
+      </c>
+      <c r="C184">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="D184" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184">
+        <v>1.6176470588235301</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>-0.15001099216376201</v>
+      </c>
+      <c r="B185">
+        <v>0.67647058823529405</v>
+      </c>
+      <c r="C185">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="D185" t="s">
+        <v>10</v>
+      </c>
+      <c r="E185">
+        <v>1.6470588235294099</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>-9.5240362979505999E-2</v>
+      </c>
+      <c r="B186">
+        <v>0.64705882352941202</v>
+      </c>
+      <c r="C186">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="D186" t="s">
+        <v>10</v>
+      </c>
+      <c r="E186">
+        <v>1.6176470588235301</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>-1.22984063637584E-2</v>
+      </c>
+      <c r="B187">
+        <v>0.61764705882352899</v>
+      </c>
+      <c r="C187">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="D187" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187">
+        <v>1.5882352941176501</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>4.4600475527070103E-2</v>
+      </c>
+      <c r="B188">
+        <v>0.58823529411764697</v>
+      </c>
+      <c r="C188">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="D188" t="s">
+        <v>10</v>
+      </c>
+      <c r="E188">
+        <v>1.5588235294117601</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>6.4963563621342701E-2</v>
+      </c>
+      <c r="B189">
+        <v>0.55882352941176505</v>
+      </c>
+      <c r="C189">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="D189" t="s">
+        <v>10</v>
+      </c>
+      <c r="E189">
+        <v>1.52941176470588</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>9.6241967943122897E-2</v>
+      </c>
+      <c r="B190">
+        <v>0.52941176470588203</v>
+      </c>
+      <c r="C190">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="D190" t="s">
+        <v>10</v>
+      </c>
+      <c r="E190">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>0.130939321745212</v>
+      </c>
+      <c r="B191">
+        <v>0.5</v>
+      </c>
+      <c r="C191">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="D191" t="s">
+        <v>10</v>
+      </c>
+      <c r="E191">
+        <v>1.47058823529412</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>0.143585887365105</v>
+      </c>
+      <c r="B192">
+        <v>0.47058823529411797</v>
+      </c>
+      <c r="C192">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="D192" t="s">
+        <v>10</v>
+      </c>
+      <c r="E192">
+        <v>1.4411764705882399</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>0.15958094480954499</v>
+      </c>
+      <c r="B193">
+        <v>0.441176470588235</v>
+      </c>
+      <c r="C193">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="D193" t="s">
+        <v>10</v>
+      </c>
+      <c r="E193">
+        <v>1.4117647058823499</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>0.185811073276196</v>
+      </c>
+      <c r="B194">
+        <v>0.41176470588235298</v>
+      </c>
+      <c r="C194">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="D194" t="s">
+        <v>10</v>
+      </c>
+      <c r="E194">
+        <v>1.3823529411764699</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>0.21300851536184801</v>
+      </c>
+      <c r="B195">
+        <v>0.41176470588235298</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195" t="s">
+        <v>10</v>
+      </c>
+      <c r="E195">
+        <v>1.4117647058823499</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>0.27238610522487799</v>
+      </c>
+      <c r="B196">
+        <v>0.38235294117647101</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196" t="s">
+        <v>10</v>
+      </c>
+      <c r="E196">
+        <v>1.3823529411764699</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>0.35400667074228698</v>
+      </c>
+      <c r="B197">
+        <v>0.35294117647058798</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197" t="s">
+        <v>10</v>
+      </c>
+      <c r="E197">
+        <v>1.3529411764705901</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>0.390307766639584</v>
+      </c>
+      <c r="B198">
+        <v>0.32352941176470601</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198" t="s">
+        <v>10</v>
+      </c>
+      <c r="E198">
+        <v>1.3235294117647101</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>0.41669179026950698</v>
+      </c>
+      <c r="B199">
+        <v>0.29411764705882398</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199" t="s">
+        <v>10</v>
+      </c>
+      <c r="E199">
+        <v>1.29411764705882</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>0.50115180511173296</v>
+      </c>
+      <c r="B200">
+        <v>0.26470588235294101</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200" t="s">
+        <v>10</v>
+      </c>
+      <c r="E200">
+        <v>1.26470588235294</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>0.59074610233270097</v>
+      </c>
+      <c r="B201">
+        <v>0.23529411764705899</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201" t="s">
+        <v>10</v>
+      </c>
+      <c r="E201">
+        <v>1.23529411764706</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>0.65198484594194095</v>
+      </c>
+      <c r="B202">
+        <v>0.20588235294117599</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202" t="s">
+        <v>10</v>
+      </c>
+      <c r="E202">
+        <v>1.20588235294118</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>0.699147352636868</v>
+      </c>
+      <c r="B203">
+        <v>0.17647058823529399</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203" t="s">
+        <v>10</v>
+      </c>
+      <c r="E203">
+        <v>1.1764705882352899</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>0.73323867829174405</v>
+      </c>
+      <c r="B204">
+        <v>0.14705882352941199</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204" t="s">
+        <v>10</v>
+      </c>
+      <c r="E204">
+        <v>1.1470588235294099</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>0.76201155033450596</v>
+      </c>
+      <c r="B205">
+        <v>0.11764705882352899</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205" t="s">
+        <v>10</v>
+      </c>
+      <c r="E205">
+        <v>1.1176470588235301</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>0.89241321712563304</v>
+      </c>
+      <c r="B206">
+        <v>8.8235294117647106E-2</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206" t="s">
+        <v>10</v>
+      </c>
+      <c r="E206">
+        <v>1.0882352941176501</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>1.20804605860801</v>
+      </c>
+      <c r="B207">
+        <v>5.8823529411764698E-2</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207" t="s">
+        <v>10</v>
+      </c>
+      <c r="E207">
+        <v>1.0588235294117601</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1.4613902312700899</v>
+      </c>
+      <c r="B208">
+        <v>2.9411764705882401E-2</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208" t="s">
+        <v>10</v>
+      </c>
+      <c r="E208">
+        <v>1.02941176470588</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>6</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209" t="s">
+        <v>10</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
